--- a/physical-build-resources/DE Arm 25/DE Arm 25 BoM.xlsx
+++ b/physical-build-resources/DE Arm 25/DE Arm 25 BoM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{E0A7FF59-95F5-0941-8588-437375E973B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD2F3F20-F6A7-1442-A644-B41A49697D4F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E0A7FF59-95F5-0941-8588-437375E973B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC815938-2802-7A40-B23C-876F30D37FBE}"/>
   <bookViews>
     <workbookView xWindow="-24180" yWindow="5040" windowWidth="14160" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
